--- a/AllDataUpdateCompletePerCap.xlsx
+++ b/AllDataUpdateCompletePerCap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathh\PycharmProjects\CT5018_Data_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0D8AE-9C8E-4CD0-A315-1E709B4D6753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860E555-F559-4D49-8DFF-89B82F325CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="60" windowWidth="16395" windowHeight="14910" xr2:uid="{BFD457A7-9623-44B7-AC68-EB1C2C53D3C7}"/>
+    <workbookView xWindow="-4530" yWindow="885" windowWidth="17505" windowHeight="10815" xr2:uid="{BFD457A7-9623-44B7-AC68-EB1C2C53D3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B466FC-D88D-48C2-89EC-126AB9FAA17E}">
   <dimension ref="A1:AR109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="X84" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,39 +1090,39 @@
         <v>7.4375895777258272</v>
       </c>
       <c r="AH5">
-        <f t="shared" ref="AH5:AH68" si="0">SUM(I5:T5)</f>
+        <f t="shared" ref="AH5:AH23" si="0">SUM(I5:T5)</f>
         <v>49.248903960616957</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5:AI68" si="1">SUM(U5:AF5)</f>
+        <f t="shared" ref="AI5:AI23" si="1">SUM(U5:AF5)</f>
         <v>46.870932990089912</v>
       </c>
       <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ68" si="2">SUM(I5:AF5)</f>
+        <f t="shared" ref="AJ5:AJ23" si="2">SUM(I5:AF5)</f>
         <v>96.119836950706869</v>
       </c>
       <c r="AL5">
-        <f t="shared" ref="AL5:AL68" si="3">AVERAGE(I5:T5)</f>
+        <f t="shared" ref="AL5:AL23" si="3">AVERAGE(I5:T5)</f>
         <v>4.1040753300514128</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM68" si="4">AVERAGE(U5:AF5)</f>
+        <f t="shared" ref="AM5:AM23" si="4">AVERAGE(U5:AF5)</f>
         <v>3.9059110825074925</v>
       </c>
       <c r="AN5">
-        <f t="shared" ref="AN5:AN68" si="5">AVERAGE(I5:AF5)</f>
+        <f t="shared" ref="AN5:AN23" si="5">AVERAGE(I5:AF5)</f>
         <v>4.0049932062794529</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP68" si="6">MEDIAN(I5:T5)</f>
+        <f t="shared" ref="AP5:AP23" si="6">MEDIAN(I5:T5)</f>
         <v>4.0203186906626085</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ68" si="7">MEDIAN(T5:AF5)</f>
+        <f t="shared" ref="AQ5:AQ23" si="7">MEDIAN(T5:AF5)</f>
         <v>3.853523</v>
       </c>
       <c r="AR5">
-        <f t="shared" ref="AR5:AR68" si="8">MEDIAN(I5:AF5)</f>
+        <f t="shared" ref="AR5:AR23" si="8">MEDIAN(I5:AF5)</f>
         <v>3.9369208453313043</v>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
         <v>22903478</v>
       </c>
       <c r="C25" s="15">
-        <f t="shared" ref="C25:AJ25" si="9">SUM(C4:C23)</f>
+        <f t="shared" ref="C25:AF25" si="9">SUM(C4:C23)</f>
         <v>43535.70000199999</v>
       </c>
       <c r="D25" s="15">
@@ -3680,7 +3680,7 @@
         <v>74.82245899562119</v>
       </c>
       <c r="AH25" s="15">
-        <f t="shared" ref="AG25:AJ25" si="10">SUM(AH4:AH23)</f>
+        <f t="shared" ref="AH25:AJ25" si="10">SUM(AH4:AH23)</f>
         <v>969.61751158645575</v>
       </c>
       <c r="AI25" s="15">
@@ -3709,7 +3709,7 @@
         <v>1145173.8999999999</v>
       </c>
       <c r="C26" s="15">
-        <f t="shared" ref="C26:AJ26" si="11">AVERAGE(C4:C23)</f>
+        <f t="shared" ref="C26:AF26" si="11">AVERAGE(C4:C23)</f>
         <v>2176.7850000999997</v>
       </c>
       <c r="D26" s="15">
@@ -3829,7 +3829,7 @@
         <v>3.7411229497810594</v>
       </c>
       <c r="AH26" s="15">
-        <f t="shared" ref="AG26:AJ26" si="12">AVERAGE(AH4:AH23)</f>
+        <f t="shared" ref="AH26:AJ26" si="12">AVERAGE(AH4:AH23)</f>
         <v>48.480875579322785</v>
       </c>
       <c r="AI26" s="15">
@@ -3858,7 +3858,7 @@
         <v>893289</v>
       </c>
       <c r="C27" s="15">
-        <f t="shared" ref="C27:AJ27" si="13" xml:space="preserve"> MEDIAN(C4:C23)</f>
+        <f t="shared" ref="C27:AF27" si="13" xml:space="preserve"> MEDIAN(C4:C23)</f>
         <v>2090.833333</v>
       </c>
       <c r="D27" s="15">
@@ -3978,7 +3978,7 @@
         <v>3.5046865425245919</v>
       </c>
       <c r="AH27" s="15">
-        <f t="shared" ref="AG27:AJ27" si="14" xml:space="preserve"> MEDIAN(AH4:AH23)</f>
+        <f t="shared" ref="AH27:AJ27" si="14" xml:space="preserve"> MEDIAN(AH4:AH23)</f>
         <v>46.833413767934886</v>
       </c>
       <c r="AI27" s="15">
@@ -4215,39 +4215,39 @@
         <v>0.53699564362284113</v>
       </c>
       <c r="AH31">
-        <f t="shared" ref="AH24:AH87" si="15">SUM(I31:T31)</f>
+        <f t="shared" ref="AH31:AH87" si="15">SUM(I31:T31)</f>
         <v>4.6987118816998601</v>
       </c>
       <c r="AI31">
-        <f t="shared" ref="AI24:AI87" si="16">SUM(U31:AF31)</f>
+        <f t="shared" ref="AI31:AI87" si="16">SUM(U31:AF31)</f>
         <v>4.2439434162655987</v>
       </c>
       <c r="AJ31">
-        <f t="shared" ref="AJ24:AJ87" si="17">SUM(I31:AF31)</f>
+        <f t="shared" ref="AJ31:AJ87" si="17">SUM(I31:AF31)</f>
         <v>8.9426552979654605</v>
       </c>
       <c r="AL31">
-        <f t="shared" ref="AL24:AL87" si="18">AVERAGE(I31:T31)</f>
+        <f t="shared" ref="AL31:AL87" si="18">AVERAGE(I31:T31)</f>
         <v>0.39155932347498834</v>
       </c>
       <c r="AM31">
-        <f t="shared" ref="AM24:AM87" si="19">AVERAGE(U31:AF31)</f>
+        <f t="shared" ref="AM31:AM87" si="19">AVERAGE(U31:AF31)</f>
         <v>0.35366195135546658</v>
       </c>
       <c r="AN31">
-        <f t="shared" ref="AN24:AN87" si="20">AVERAGE(I31:AF31)</f>
+        <f t="shared" ref="AN31:AN87" si="20">AVERAGE(I31:AF31)</f>
         <v>0.37261063741522754</v>
       </c>
       <c r="AP31">
-        <f t="shared" ref="AP24:AP87" si="21">MEDIAN(I31:T31)</f>
+        <f t="shared" ref="AP31:AP87" si="21">MEDIAN(I31:T31)</f>
         <v>0.4027467327171308</v>
       </c>
       <c r="AQ31">
-        <f t="shared" ref="AQ24:AQ87" si="22">MEDIAN(T31:AF31)</f>
+        <f t="shared" ref="AQ31:AQ87" si="22">MEDIAN(T31:AF31)</f>
         <v>0.35072500000000001</v>
       </c>
       <c r="AR31">
-        <f t="shared" ref="AR24:AR87" si="23">MEDIAN(I31:AF31)</f>
+        <f t="shared" ref="AR31:AR87" si="23">MEDIAN(I31:AF31)</f>
         <v>0.4027467327171308</v>
       </c>
     </row>
@@ -12597,7 +12597,7 @@
         <v>19.232453391351235</v>
       </c>
       <c r="AC99">
-        <v>24.349659740121474</v>
+        <v>24.349659740121499</v>
       </c>
       <c r="AD99">
         <v>23.971879405648501</v>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="AI99">
         <f t="shared" si="31"/>
-        <v>302.83203517459287</v>
+        <v>302.83203517459293</v>
       </c>
       <c r="AJ99">
         <f t="shared" si="32"/>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="AM99">
         <f t="shared" si="34"/>
-        <v>25.236002931216074</v>
+        <v>25.236002931216078</v>
       </c>
       <c r="AN99">
         <f t="shared" si="35"/>
@@ -13430,7 +13430,7 @@
       </c>
       <c r="AC106" s="15">
         <f t="shared" si="39"/>
-        <v>592.63189255225916</v>
+        <v>592.63189255225927</v>
       </c>
       <c r="AD106" s="15">
         <f t="shared" si="39"/>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="AC107" s="15">
         <f t="shared" si="40"/>
-        <v>29.631594627612959</v>
+        <v>29.631594627612962</v>
       </c>
       <c r="AD107" s="15">
         <f t="shared" si="40"/>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="AI108" s="15">
         <f t="shared" si="41"/>
-        <v>303.1099644526526</v>
+        <v>303.10996445265266</v>
       </c>
       <c r="AJ108" s="15">
         <f t="shared" si="41"/>
